--- a/MHSP/generator_data/Regression_par.xlsx
+++ b/MHSP/generator_data/Regression_par.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_Term_Housing_Planning\MHSP\generator_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994F65AE-5D07-4F1D-A9A4-2BCE59DFFE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C4ACD1-5805-4715-A303-78579D4D1110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>y</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
 </sst>
 </file>
@@ -78,8 +81,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,75 +366,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0.18181820000000001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>-0.57430000000000003</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>-2.9260000000000002E-3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>8.3470000000000003E-7</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>2.3220000000000001</v>
       </c>
+      <c r="G2" s="1">
+        <v>0.72789999999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0.14141409999999999</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>-0.72870000000000001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>-1.7979999999999999E-3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>5.8540000000000004E-7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.15609999999999999</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>1.9910000000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.58520000000000005</v>
       </c>
     </row>
   </sheetData>
